--- a/ERD INVENTORY.xlsx
+++ b/ERD INVENTORY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Oracle Aprex\Lecture\Lecture 6 assingment 1\Mudi dokan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF27E8F-39C9-4176-99B2-C015D36671F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB8AE35-EB6D-4FFE-B438-8702F8F7718B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23145" yWindow="1380" windowWidth="22980" windowHeight="12900" tabRatio="811" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="22980" windowHeight="12900" tabRatio="811" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT_MASTER" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="SUPPLIER_PAYMENTS" sheetId="13" r:id="rId13"/>
     <sheet name="EXPENSE_MASTER" sheetId="14" r:id="rId14"/>
     <sheet name="EXPENSE_DETAILS" sheetId="15" r:id="rId15"/>
+    <sheet name="PAID_BY" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="197">
   <si>
     <t>Active</t>
   </si>
@@ -630,13 +631,22 @@
   </si>
   <si>
     <t>SALE_DATE</t>
+  </si>
+  <si>
+    <t>PAID_TYPE</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>Bkash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,6 +689,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -756,7 +774,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -779,6 +797,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
@@ -7038,11 +7060,204 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068191BB-5877-4B25-8E5A-1AE758857BEE}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3">
+        <v>600</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="11">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4">
+        <v>700</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5">
+        <v>800</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6">
+        <v>900</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="11">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8">
+        <v>1100</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9">
+        <v>1200</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10">
+        <v>1300</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11">
+        <v>45667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34DC895-36A1-4F5B-A11B-A8DA962D3380}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
